--- a/APPSHEET/EXCEL/estado_habitacion_franco.xlsx
+++ b/APPSHEET/EXCEL/estado_habitacion_franco.xlsx
@@ -138,7 +138,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
@@ -158,7 +158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
@@ -172,9 +172,49 @@
         </is>
       </c>
     </row>
-    <row r="4" customHeight="1" ht="480">
-      <c r="A4" s="2" t="inlineStr"/>
-      <c r="B4" s="2" t="inlineStr"/>
+    <row r="4" customHeight="1" ht="20">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3</t>
+          </r>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LIMPIANDO</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="5" customHeight="1" ht="20">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3</t>
+          </r>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SUCIO</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="6" customHeight="1" ht="480">
+      <c r="A6" s="2" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>

--- a/APPSHEET/EXCEL/estado_habitacion_franco.xlsx
+++ b/APPSHEET/EXCEL/estado_habitacion_franco.xlsx
@@ -138,7 +138,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">25</t>
           </r>
         </is>
       </c>
@@ -158,7 +158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -172,49 +172,9 @@
         </is>
       </c>
     </row>
-    <row r="4" customHeight="1" ht="20">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3</t>
-          </r>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LIMPIANDO</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="5" customHeight="1" ht="20">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3</t>
-          </r>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SUCIO</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="6" customHeight="1" ht="480">
-      <c r="A6" s="2" t="inlineStr"/>
-      <c r="B6" s="2" t="inlineStr"/>
+    <row r="4" customHeight="1" ht="480">
+      <c r="A4" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
